--- a/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
+++ b/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Central Negros Power Reliability, Inc.</t>
   </si>
@@ -225,9 +225,6 @@
     <t>PR1001</t>
   </si>
   <si>
-    <t>Stephine David Severino</t>
-  </si>
-  <si>
     <t>Testing Purpose</t>
   </si>
   <si>
@@ -262,6 +259,12 @@
   </si>
   <si>
     <t>Item5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> department11</t>
+  </si>
+  <si>
+    <t>Jonah Faye Benares</t>
   </si>
 </sst>
 </file>
@@ -477,74 +480,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,7 +592,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +893,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I9" sqref="I9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,14 +919,14 @@
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="5"/>
@@ -931,14 +934,14 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="6"/>
@@ -946,14 +949,14 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="6"/>
@@ -961,138 +964,138 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="I7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="26">
+      <c r="B8" s="31"/>
+      <c r="C8" s="17">
         <v>45607</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="18"/>
       <c r="H8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="26">
+      <c r="B9" s="31"/>
+      <c r="C9" s="17">
         <v>45607</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="18"/>
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="I9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="27">
         <v>1</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="C11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="C12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1107,19 +1110,19 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -1129,24 +1132,24 @@
         <v>3</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="11">
         <v>1001</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="E14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="10">
         <v>1</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="17">
         <v>45608</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1156,24 +1159,24 @@
         <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="11">
         <v>1002</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="E15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="10">
         <v>2</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="17">
         <v>45609</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1183,24 +1186,24 @@
         <v>5</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="11">
         <v>1003</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="E16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="10">
         <v>3</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="17">
         <v>45610</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1210,24 +1213,24 @@
         <v>6</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="11">
         <v>1004</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="10">
         <v>4</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="17">
         <v>45611</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1237,48 +1240,27 @@
         <v>7</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="11">
         <v>1005</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="E18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="10">
         <v>5</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="17">
         <v>45612</v>
       </c>
-      <c r="K18" s="28"/>
+      <c r="K18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="C2:H2"/>
@@ -1289,6 +1271,27 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
+++ b/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
@@ -893,7 +893,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:K9"/>
+      <selection activeCell="I10" sqref="I10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,9 +1057,7 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
+      <c r="I10" s="27"/>
       <c r="J10" s="28"/>
       <c r="K10" s="29"/>
     </row>
@@ -1143,9 +1141,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
+      <c r="I14" s="10"/>
       <c r="J14" s="17">
         <v>45608</v>
       </c>
@@ -1170,9 +1166,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="10">
-        <v>2</v>
-      </c>
+      <c r="I15" s="10"/>
       <c r="J15" s="17">
         <v>45609</v>
       </c>
@@ -1197,9 +1191,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="10">
-        <v>3</v>
-      </c>
+      <c r="I16" s="10"/>
       <c r="J16" s="17">
         <v>45610</v>
       </c>
@@ -1224,9 +1216,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="10">
-        <v>4</v>
-      </c>
+      <c r="I17" s="10"/>
       <c r="J17" s="17">
         <v>45611</v>
       </c>
@@ -1251,9 +1241,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="10">
-        <v>5</v>
-      </c>
+      <c r="I18" s="10"/>
       <c r="J18" s="17">
         <v>45612</v>
       </c>

--- a/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
+++ b/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
@@ -893,7 +893,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:K10"/>
+      <selection activeCell="J14" sqref="J14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,9 +1142,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="17">
-        <v>45608</v>
-      </c>
+      <c r="J14" s="17"/>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1167,9 +1165,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="17">
-        <v>45609</v>
-      </c>
+      <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1192,9 +1188,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="17">
-        <v>45610</v>
-      </c>
+      <c r="J16" s="17"/>
       <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1217,9 +1211,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="17">
-        <v>45611</v>
-      </c>
+      <c r="J17" s="17"/>
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1242,9 +1234,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="17">
-        <v>45612</v>
-      </c>
+      <c r="J18" s="17"/>
       <c r="K18" s="18"/>
     </row>
   </sheetData>

--- a/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
+++ b/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
@@ -222,9 +222,6 @@
     <t>BCD</t>
   </si>
   <si>
-    <t>PR1001</t>
-  </si>
-  <si>
     <t>Testing Purpose</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>Jonah Faye Benares</t>
+  </si>
+  <si>
+    <t>PR10011234</t>
   </si>
 </sst>
 </file>
@@ -480,74 +480,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +592,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:K14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,14 +919,14 @@
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="5"/>
@@ -934,14 +934,14 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="6"/>
@@ -949,14 +949,14 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="6"/>
@@ -964,136 +964,136 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
+      <c r="I7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="17">
+      <c r="B8" s="21"/>
+      <c r="C8" s="26">
         <v>45607</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="H8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="17">
+      <c r="B9" s="21"/>
+      <c r="C9" s="26">
         <v>45607</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
+      <c r="I9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="C11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="C12" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1108,19 +1108,19 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -1130,20 +1130,20 @@
         <v>3</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="11">
         <v>1001</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="E14" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1153,20 +1153,20 @@
         <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="11">
         <v>1002</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="E15" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1176,20 +1176,20 @@
         <v>5</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="11">
         <v>1003</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="E16" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1199,20 +1199,20 @@
         <v>6</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="11">
         <v>1004</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="E17" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1222,23 +1222,44 @@
         <v>7</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="11">
         <v>1005</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="E18" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="C2:H2"/>
@@ -1249,27 +1270,6 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
+++ b/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
@@ -258,13 +258,13 @@
     <t>Item5</t>
   </si>
   <si>
-    <t xml:space="preserve"> department11</t>
-  </si>
-  <si>
     <t>Jonah Faye Benares</t>
   </si>
   <si>
-    <t>PR10011234</t>
+    <t>PR100112341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IT-Bacolod</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I7" sqref="I7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="25"/>
@@ -1024,7 +1024,7 @@
         <v>62</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="25"/>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="25"/>
@@ -1057,7 +1057,9 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="23">
+        <v>0</v>
+      </c>
       <c r="J10" s="24"/>
       <c r="K10" s="25"/>
     </row>

--- a/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
+++ b/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Purchase Request" sheetId="1" r:id="rId1"/>
     <sheet name="Department Code" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -261,10 +261,10 @@
     <t>Jonah Faye Benares</t>
   </si>
   <si>
-    <t>PR100112341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  IT-Bacolod</t>
+    <t>ITBS</t>
+  </si>
+  <si>
+    <t>PR10011234112</t>
   </si>
 </sst>
 </file>
@@ -480,74 +480,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +592,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:K7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,14 +919,14 @@
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="5"/>
@@ -934,14 +934,14 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="6"/>
@@ -949,14 +949,14 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="6"/>
@@ -964,138 +964,138 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="I7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="26">
+      <c r="B8" s="31"/>
+      <c r="C8" s="17">
         <v>45607</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="18"/>
       <c r="H8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="I8" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="26">
+      <c r="B9" s="31"/>
+      <c r="C9" s="17">
         <v>45607</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="18"/>
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="27">
         <v>0</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1110,19 +1110,19 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -1137,15 +1137,15 @@
       <c r="D14" s="11">
         <v>1001</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="28"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1160,15 +1160,15 @@
       <c r="D15" s="11">
         <v>1002</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="28"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1183,15 +1183,15 @@
       <c r="D16" s="11">
         <v>1003</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="28"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1206,15 +1206,15 @@
       <c r="D17" s="11">
         <v>1004</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="28"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1229,39 +1229,18 @@
       <c r="D18" s="11">
         <v>1005</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="C2:H2"/>
@@ -1272,6 +1251,27 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
+++ b/storage/app/imports/PurchaseRequestFormcenpribcd.xlsx
@@ -264,7 +264,7 @@
     <t>ITBS</t>
   </si>
   <si>
-    <t>PR10011234112</t>
+    <t>PR1001123411213a</t>
   </si>
 </sst>
 </file>
@@ -480,74 +480,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +592,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2470C10-039B-48A4-8559-E52AA07AE7F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,14 +919,14 @@
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="5"/>
@@ -934,14 +934,14 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="6"/>
@@ -949,14 +949,14 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="6"/>
@@ -964,138 +964,138 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="17">
+      <c r="B8" s="21"/>
+      <c r="C8" s="26">
         <v>45607</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="H8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="17">
+      <c r="B9" s="21"/>
+      <c r="C9" s="26">
         <v>45607</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="23">
         <v>0</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1110,19 +1110,19 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -1137,15 +1137,15 @@
       <c r="D14" s="11">
         <v>1001</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1160,15 +1160,15 @@
       <c r="D15" s="11">
         <v>1002</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1183,15 +1183,15 @@
       <c r="D16" s="11">
         <v>1003</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1206,15 +1206,15 @@
       <c r="D17" s="11">
         <v>1004</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1229,18 +1229,39 @@
       <c r="D18" s="11">
         <v>1005</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="C2:H2"/>
@@ -1251,27 +1272,6 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
